--- a/src/test/resources/org/sitoolkit/core/infra/repository/excel/ExcelRepositoryWriteTestTemplate.xlsx
+++ b/src/test/resources/org/sitoolkit/core/infra/repository/excel/ExcelRepositoryWriteTestTemplate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\netbeans-workspace\workspace_sitgithub\sit-core\src\test\resources\org\sitoolkit\core\infra\repository\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="8505"/>
+    <workbookView xWindow="600" yWindow="80" windowWidth="19400" windowHeight="8510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -31,6 +36,16 @@
   <si>
     <t>数式</t>
     <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字+数式</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>スウシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -79,9 +94,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -93,12 +111,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -140,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,6 +423,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -415,7 +439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -428,7 +452,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
